--- a/BD_ConteoManual/BD_ConteoManual.xlsx
+++ b/BD_ConteoManual/BD_ConteoManual.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,341 +607,434 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0597_Seg1</t>
+          <t>0362_Seg1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0597_Seg2</t>
+          <t>0362_Seg2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0597_Seg3</t>
+          <t>0362_Seg3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0614_Seg1</t>
+          <t>0597_Seg1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0614_Seg2</t>
+          <t>0597_Seg2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0614_Seg3</t>
+          <t>0597_Seg3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0674_Seg1</t>
+          <t>0614_Seg1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0861_Seg1</t>
+          <t>0614_Seg2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0861_Seg2</t>
+          <t>0614_Seg3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0883_Seg1</t>
+          <t>0674_Seg1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>0861_Seg1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15</v>
+      </c>
+      <c r="I16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0861_Seg2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0883_Seg1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>35</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>4040_Seg1</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>33</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>25</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>3</v>
       </c>
     </row>
